--- a/www/terminologies/ValueSet-jdv-severite-observation-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-severite-observation-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-severite-observation-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-severite-observation-cisis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115833</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,37 +102,34 @@
     <t>442452003</t>
   </si>
   <si>
-    <t>gravité mortelle</t>
+    <t>mise en jeu du pronostic vital</t>
   </si>
   <si>
     <t>24484000</t>
   </si>
   <si>
-    <t>grave</t>
+    <t>gravité sévère</t>
   </si>
   <si>
     <t>371924009</t>
   </si>
   <si>
-    <t>modéré à sévère</t>
+    <t>gravité modérée à sévère</t>
   </si>
   <si>
     <t>6736007</t>
   </si>
   <si>
-    <t>modéré</t>
+    <t>gravité modérée</t>
   </si>
   <si>
     <t>371923003</t>
   </si>
   <si>
-    <t>léger à modéré</t>
-  </si>
-  <si>
     <t>255604002</t>
   </si>
   <si>
-    <t>léger</t>
+    <t>gravité légère</t>
   </si>
   <si>
     <t/>
@@ -463,31 +460,31 @@
         <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-jdv-severite-observation-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-severite-observation-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115833</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:33+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
